--- a/soft/tests/subs/1.Eng.xlsx
+++ b/soft/tests/subs/1.Eng.xlsx
@@ -25,7 +25,7 @@
     <t>idx</t>
   </si>
   <si>
-    <t>date</t>
+    <t>time</t>
   </si>
   <si>
     <t>original</t>
